--- a/2016年7.04-7.10/Summary.xlsx
+++ b/2016年7.04-7.10/Summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="掠夺总榜" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="637">
   <si>
     <t>ID</t>
   </si>
@@ -1939,6 +1939,9 @@
   </si>
   <si>
     <t>\</t>
+  </si>
+  <si>
+    <t>超六总计</t>
   </si>
 </sst>
 </file>
@@ -2011,7 +2014,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2073,6 +2076,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3588,31 +3594,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="E1" s="31" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="E1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="I1" s="31" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="I1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="M1" s="31" t="s">
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="M1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="Q1" s="31" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="Q1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="8" t="s">
@@ -9125,11 +9131,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4">
@@ -9670,8 +9676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9685,19 +9691,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
       <c r="K1" s="15" t="s">
         <v>251</v>
       </c>
@@ -11374,45 +11380,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="E1" s="31" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="I1" s="31" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="I1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="M1" s="31" t="s">
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="M1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="32">
+      <c r="A2" s="33">
         <v>42464</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
@@ -13671,7 +13677,7 @@
   <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17601,7 +17607,7 @@
         <v>0</v>
       </c>
       <c r="F130" s="20">
-        <f t="shared" ref="F130:F161" si="8">SUM(B130:E130)</f>
+        <f t="shared" ref="F130:F144" si="8">SUM(B130:E130)</f>
         <v>0</v>
       </c>
       <c r="G130" s="20"/>
@@ -18043,7 +18049,7 @@
   <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21975,7 +21981,7 @@
         <v>0</v>
       </c>
       <c r="F130" s="20">
-        <f t="shared" ref="F130:F161" si="8">SUM(B130:E130)</f>
+        <f t="shared" ref="F130:F150" si="8">SUM(B130:E130)</f>
         <v>0</v>
       </c>
       <c r="G130" s="20"/>
@@ -26527,7 +26533,7 @@
         <v>0</v>
       </c>
       <c r="F130" s="20">
-        <f t="shared" ref="F130:F161" si="8">SUM(B130:E130)</f>
+        <f t="shared" ref="F130:F151" si="8">SUM(B130:E130)</f>
         <v>0</v>
       </c>
       <c r="G130" s="20"/>
@@ -31111,7 +31117,7 @@
         <v>0</v>
       </c>
       <c r="F130" s="20">
-        <f t="shared" ref="F130:F161" si="8">SUM(B130:E130)</f>
+        <f t="shared" ref="F130:F149" si="8">SUM(B130:E130)</f>
         <v>0</v>
       </c>
       <c r="G130" s="20"/>
@@ -31700,18 +31706,19 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="30"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
@@ -31727,8 +31734,11 @@
       <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="H1" s="31" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="30" t="s">
         <v>625</v>
       </c>
@@ -31752,8 +31762,12 @@
         <f>SUM(B2:E2)</f>
         <v>1268</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="H2" s="4">
+        <f>'何梦-箱子'!M2+'若梦-箱子'!M2+'如梦-箱子'!M2+'逐梦-箱子'!M2</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="30" t="s">
         <v>21</v>
       </c>
@@ -31778,17 +31792,17 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="31" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="32" t="s">
         <v>629</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
         <v>635</v>
       </c>
@@ -31808,7 +31822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
         <v>630</v>
       </c>
@@ -31833,7 +31847,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
         <v>631</v>
       </c>
@@ -31858,7 +31872,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>632</v>
       </c>
@@ -31883,7 +31897,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
         <v>633</v>
       </c>
@@ -31908,7 +31922,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>634</v>
       </c>
